--- a/Data/RuleTypeValidation_Amy2.xlsx
+++ b/Data/RuleTypeValidation_Amy2.xlsx
@@ -43,10 +43,10 @@
     <t>11/01/2024</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>The minimum amount of hours has not been met. Period: 11/01/2024 - 11/30/2024, amount of hours: 162:45, evaluated hours: 45:45.</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>Scheduled for 49:45 hours, which is more than the weekly maximum of 48:00 hours.</t>
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,13 +490,13 @@
         <v>10649103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.6" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
